--- a/Test FSharp project/ExelFiles/ListData.xlsx
+++ b/Test FSharp project/ExelFiles/ListData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniil\source\repos\Test FSharp project\Test FSharp project\ExelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31526774-457F-456E-9716-00FAA5F41F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D6847-690E-4D45-85A8-A0E67ED7B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44040" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50340" yWindow="1215" windowWidth="15360" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
